--- a/计划执行表.xlsx
+++ b/计划执行表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,57 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>ID</t>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周一</t>
+    <t>学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周二</t>
+    <t>节食</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1--12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烘焙光照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时</t>
+    <t>早睡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,12 +92,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -175,7 +142,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +177,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,18 +386,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,43 +410,90 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>44394</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +509,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -508,7 +522,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/计划执行表.xlsx
+++ b/计划执行表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>早睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +104,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -142,7 +146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,7 +181,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,18 +390,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.75" style="1"/>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,89 +414,72 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44394</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
         <v>44408</v>
       </c>
     </row>
@@ -509,7 +496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -522,7 +509,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
